--- a/Shard_BOM.xlsx
+++ b/Shard_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ettore\Desktop\Progetti PCB\Shard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB9BE9F-92E9-4767-8B0A-0691C42E5D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E598D329-1D20-4F44-98A9-83AA5CEA2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>Comment</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Resistor_SMD:R_1210_3225Metric</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_01005_0402Metric</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0201_0603Metric</t>
   </si>
   <si>
@@ -414,15 +411,9 @@
     <t>C304940</t>
   </si>
   <si>
-    <t xml:space="preserve"> C270300</t>
-  </si>
-  <si>
     <t>C306975</t>
   </si>
   <si>
-    <t>C185685</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C720477</t>
   </si>
   <si>
@@ -445,13 +436,19 @@
   </si>
   <si>
     <t>BOOT</t>
+  </si>
+  <si>
+    <t>C965347</t>
+  </si>
+  <si>
+    <t>C17722</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -489,6 +486,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -528,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,6 +556,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -895,18 +902,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="73.125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -946,7 +953,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -960,7 +967,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -974,7 +981,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -988,7 +995,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1002,7 +1009,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1016,7 +1023,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1030,7 +1037,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1044,7 +1051,7 @@
         <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1058,7 +1065,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1072,7 +1079,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1086,7 +1093,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1100,7 +1107,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1114,7 +1121,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1128,7 +1135,7 @@
         <v>80</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1142,7 +1149,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1156,7 +1163,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1170,7 +1177,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1184,7 +1191,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1198,7 +1205,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1212,7 +1219,7 @@
         <v>80</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1226,7 +1233,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1240,7 +1247,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1254,7 +1261,7 @@
         <v>83</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1268,7 +1275,7 @@
         <v>84</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1282,7 +1289,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1344,10 +1351,10 @@
         <v>87</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>21</v>
       </c>
@@ -1358,10 +1365,10 @@
         <v>87</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
@@ -1372,10 +1379,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>22</v>
       </c>
@@ -1386,10 +1393,10 @@
         <v>88</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>220</v>
       </c>
@@ -1400,10 +1407,10 @@
         <v>89</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>23</v>
       </c>
@@ -1414,10 +1421,10 @@
         <v>88</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>24</v>
       </c>
@@ -1428,10 +1435,10 @@
         <v>90</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6">
         <v>0</v>
       </c>
@@ -1441,11 +1448,11 @@
       <c r="C39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="D39" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6">
         <v>0</v>
       </c>
@@ -1455,11 +1462,12 @@
       <c r="C40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="D40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6">
         <v>0</v>
       </c>
@@ -1469,11 +1477,11 @@
       <c r="C41" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="D41" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6">
         <v>0</v>
       </c>
@@ -1483,11 +1491,11 @@
       <c r="C42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="D42" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6">
         <v>0</v>
       </c>
@@ -1497,11 +1505,11 @@
       <c r="C43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="D43" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6">
         <v>22</v>
       </c>
@@ -1509,13 +1517,13 @@
         <v>71</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6">
         <v>499</v>
       </c>
@@ -1526,38 +1534,39 @@
         <v>89</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
@@ -1565,10 +1574,10 @@
         <v>5</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1579,10 +1588,10 @@
         <v>73</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1593,10 +1602,10 @@
         <v>74</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1607,10 +1616,10 @@
         <v>75</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1621,10 +1630,10 @@
         <v>76</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -1635,14 +1644,14 @@
         <v>77</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>